--- a/socialstyrelsen/statistik-covid19-avlidna_2020-11-16.xlsx
+++ b/socialstyrelsen/statistik-covid19-avlidna_2020-11-16.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\S\Delad\021-Statistik Covid\Excelfiler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projekt\Covid19_intensivvard\Upprepade leveranser\Output\Arbetsmapp\MALL_UT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,19 +24,23 @@
     <sheet name="Kommun" sheetId="18" r:id="rId10"/>
     <sheet name="Dödsdag" sheetId="12" r:id="rId11"/>
     <sheet name="Vecka" sheetId="21" r:id="rId12"/>
+    <sheet name="Avlidna - Vecka" sheetId="22" r:id="rId13"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId14"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Kommun!$A$7:$H$322</definedName>
     <definedName name="innehållsförteckning" localSheetId="6">#REF!</definedName>
     <definedName name="innehållsförteckning" localSheetId="1">Definitioner!#REF!</definedName>
     <definedName name="innehållsförteckning">'Om statistiken'!$B$15</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="867">
   <si>
     <t>Diabetes</t>
   </si>
@@ -2853,6 +2857,18 @@
   <si>
     <t>Vecka 47</t>
   </si>
+  <si>
+    <t>Avlidna-statistiken</t>
+  </si>
+  <si>
+    <t>Nya kolumner för Särskilt boende och Hemtjänst läggs till i Vecko-fliken</t>
+  </si>
+  <si>
+    <t>Källa: dödsorsaksintyg</t>
+  </si>
+  <si>
+    <t>Särsklit boende</t>
+  </si>
 </sst>
 </file>
 
@@ -2866,7 +2882,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0\ _k_r_-;\-* #,##0\ _k_r_-;_-* &quot;-&quot;\ _k_r_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="8"/>
       <color theme="1"/>
@@ -3111,6 +3127,14 @@
       <family val="1"/>
       <charset val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3132,7 +3156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -3728,6 +3752,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3779,7 +3814,7 @@
     <xf numFmtId="167" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="302">
+  <cellXfs count="316">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4606,6 +4641,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="18"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="53" xfId="18" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="53" xfId="18" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="18" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="18" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="34">
     <cellStyle name="Diagramrubrik" xfId="17"/>
@@ -4698,7 +4771,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5060,7 +5132,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5162,7 +5233,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5459,7 +5529,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5561,7 +5630,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5851,7 +5919,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5953,7 +6020,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6255,7 +6321,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8828,6 +8893,1004 @@
           <c:tx>
             <c:strRef>
               <c:f>Vecka!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Antal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.7094017094017096E-2"/>
+              <c:y val="0.13112002354845834"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="t" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="685813880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.617590536225707E-2"/>
+          <c:y val="0.1881575858294095"/>
+          <c:w val="0.91443390089059362"/>
+          <c:h val="0.61537394300213577"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Totalt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="38"/>
+              <c:pt idx="0">
+                <c:v>Uppgift saknas</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Vecka 10</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Vecka 11</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Vecka 12</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Vecka 13</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>Vecka 14</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>Vecka 15</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>Vecka 16</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>Vecka 17</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>Vecka 18</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>Vecka 19</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>Vecka 20</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>Vecka 21</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>Vecka 22</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>Vecka 23</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>Vecka 24</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>Vecka 25</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>Vecka 26</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>Vecka 27</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>Vecka 28</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>Vecka 29</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>Vecka 30</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>Vecka 31</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>Vecka 32</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>Vecka 33</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>Vecka 34</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>Vecka 35</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>Vecka 36</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>Vecka 37</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>Vecka 38</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>Vecka 39</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>Vecka 40</c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v>Vecka 41</c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v>Vecka 42</c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v>Vecka 43</c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v>Vecka 44</c:v>
+              </c:pt>
+              <c:pt idx="36">
+                <c:v>Vecka 45</c:v>
+              </c:pt>
+              <c:pt idx="37">
+                <c:v>Vecka 46</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="38"/>
+              <c:pt idx="0">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>44</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>186</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>468</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>737</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>727</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>595</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>553</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>498</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>379</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>340</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>258</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>252</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>224</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>184</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>130</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>81</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>75</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>60</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>28</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>24</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>24</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v>17</c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v>25</c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v>52</c:v>
+              </c:pt>
+              <c:pt idx="36">
+                <c:v>41</c:v>
+              </c:pt>
+              <c:pt idx="37">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B3B6-492D-A459-DCAA46804C21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="49"/>
+        <c:axId val="685813880"/>
+        <c:axId val="685813224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="685813880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="685813224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="685813224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>"Antal"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Antal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.7094017094017096E-2"/>
+              <c:y val="0.13112002354845834"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="t" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="685813880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.617590536225707E-2"/>
+          <c:y val="0.1881575858294095"/>
+          <c:w val="0.91443390089059362"/>
+          <c:h val="0.61537394300213577"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Särsklit boende</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="38"/>
+              <c:pt idx="0">
+                <c:v>Uppgift saknas</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Vecka 10</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Vecka 11</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Vecka 12</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Vecka 13</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>Vecka 14</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>Vecka 15</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>Vecka 16</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>Vecka 17</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>Vecka 18</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>Vecka 19</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>Vecka 20</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>Vecka 21</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>Vecka 22</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>Vecka 23</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>Vecka 24</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>Vecka 25</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>Vecka 26</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>Vecka 27</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>Vecka 28</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>Vecka 29</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>Vecka 30</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>Vecka 31</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>Vecka 32</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>Vecka 33</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>Vecka 34</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>Vecka 35</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>Vecka 36</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>Vecka 37</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>Vecka 38</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>Vecka 39</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>Vecka 40</c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v>Vecka 41</c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v>Vecka 42</c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v>Vecka 43</c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v>Vecka 44</c:v>
+              </c:pt>
+              <c:pt idx="36">
+                <c:v>Vecka 45</c:v>
+              </c:pt>
+              <c:pt idx="37">
+                <c:v>Vecka 46</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="38"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>53</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>195</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>319</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>395</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>292</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>289</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>249</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>190</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>164</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>98</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>95</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>99</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>81</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>62</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>41</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>35</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>25</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v>37</c:v>
+              </c:pt>
+              <c:pt idx="36">
+                <c:v>18</c:v>
+              </c:pt>
+              <c:pt idx="37">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7743-41D7-9164-69ADA24A0AF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="49"/>
+        <c:axId val="685813880"/>
+        <c:axId val="685813224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="685813880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="685813224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="685813224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>"Antal"</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9191,6 +10254,86 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12761,6 +13904,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -14681,6 +16830,161 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rektangel med rundade hörn 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3057525" y="381000"/>
+          <a:ext cx="1168400" cy="377825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="DAD7CB"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40005" dist="22860" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="sv-SE" sz="1000" b="1" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Om Statistiken</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagram 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -14836,6 +17140,714 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00451</cdr:x>
+      <cdr:y>0.06812</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97699</cdr:x>
+      <cdr:y>0.13481</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="textruta 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="30177" y="277724"/>
+          <a:ext cx="6502492" cy="271849"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fld id="{DB3DDABD-4108-495D-B1C2-117387D5C966}" type="TxLink">
+            <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century Gothic"/>
+            </a:rPr>
+            <a:pPr/>
+            <a:t>Nya kolumner för Särskilt boende och Hemtjänst läggs till i Vecko-fliken</a:t>
+          </a:fld>
+          <a:endParaRPr lang="sv-SE" sz="800" b="0"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00485</cdr:x>
+      <cdr:y>0.01246</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.07914</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="textruta 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="50800" y="50800"/>
+          <a:ext cx="6654091" cy="271849"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="sv-SE" sz="1000" b="1"/>
+            <a:t>Antal avlidna i covid-19 enligt inkommet dödsorsaksintyg</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00332</cdr:x>
+      <cdr:y>0.88914</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.48</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="textruta 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="22199" y="3819526"/>
+          <a:ext cx="3187345" cy="476249"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="sv-SE" sz="700"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.9357</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99858</cdr:x>
+      <cdr:y>0.9954</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="textruta 4"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="4019550"/>
+          <a:ext cx="8503258" cy="256463"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fld id="{5A2EA673-8583-43EF-AEED-72A77018A174}" type="TxLink">
+            <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century Gothic"/>
+            </a:rPr>
+            <a:pPr/>
+            <a:t>Källa: dödsorsaksintyg</a:t>
+          </a:fld>
+          <a:endParaRPr lang="sv-SE" sz="1900" smtClean="0"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00451</cdr:x>
+      <cdr:y>0.06812</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97699</cdr:x>
+      <cdr:y>0.13481</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="textruta 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="30177" y="277724"/>
+          <a:ext cx="6502492" cy="271849"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fld id="{DB3DDABD-4108-495D-B1C2-117387D5C966}" type="TxLink">
+            <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century Gothic"/>
+            </a:rPr>
+            <a:pPr/>
+            <a:t>Nya kolumner för Särskilt boende och Hemtjänst läggs till i Vecko-fliken</a:t>
+          </a:fld>
+          <a:endParaRPr lang="sv-SE" sz="800" b="0"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00485</cdr:x>
+      <cdr:y>0.01246</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.07914</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="textruta 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="50800" y="50800"/>
+          <a:ext cx="6654091" cy="271849"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="sv-SE" sz="1000" b="1"/>
+            <a:t>Antal avlidna, på särsklit boende, i covid-19 enligt inkommet dödsorsaksintyg</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00332</cdr:x>
+      <cdr:y>0.88914</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.48</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="textruta 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="22199" y="3819526"/>
+          <a:ext cx="3187345" cy="476249"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="sv-SE" sz="700"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.9357</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99858</cdr:x>
+      <cdr:y>0.9954</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="textruta 4"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="4019550"/>
+          <a:ext cx="8503258" cy="256463"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fld id="{5A2EA673-8583-43EF-AEED-72A77018A174}" type="TxLink">
+            <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Century Gothic"/>
+            </a:rPr>
+            <a:pPr/>
+            <a:t>Källa: dödsorsaksintyg</a:t>
+          </a:fld>
+          <a:endParaRPr lang="sv-SE" sz="1900" smtClean="0"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17252,6 +20264,455 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Om statistiken"/>
+      <sheetName val="Avliden - vecka"/>
+      <sheetName val="Smittade 70+ - vecka"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>Totalt</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>Särsklit boende</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Antal</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Uppgift saknas</v>
+          </cell>
+          <cell r="B10">
+            <v>11</v>
+          </cell>
+          <cell r="D10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Vecka 10</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>X</v>
+          </cell>
+          <cell r="D11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Vecka 11</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>X</v>
+          </cell>
+          <cell r="D12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Vecka 12</v>
+          </cell>
+          <cell r="B13">
+            <v>44</v>
+          </cell>
+          <cell r="D13">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Vecka 13</v>
+          </cell>
+          <cell r="B14">
+            <v>186</v>
+          </cell>
+          <cell r="D14">
+            <v>53</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Vecka 14</v>
+          </cell>
+          <cell r="B15">
+            <v>468</v>
+          </cell>
+          <cell r="D15">
+            <v>195</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Vecka 15</v>
+          </cell>
+          <cell r="B16">
+            <v>737</v>
+          </cell>
+          <cell r="D16">
+            <v>319</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Vecka 16</v>
+          </cell>
+          <cell r="B17">
+            <v>727</v>
+          </cell>
+          <cell r="D17">
+            <v>395</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Vecka 17</v>
+          </cell>
+          <cell r="B18">
+            <v>595</v>
+          </cell>
+          <cell r="D18">
+            <v>292</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Vecka 18</v>
+          </cell>
+          <cell r="B19">
+            <v>553</v>
+          </cell>
+          <cell r="D19">
+            <v>289</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Vecka 19</v>
+          </cell>
+          <cell r="B20">
+            <v>498</v>
+          </cell>
+          <cell r="D20">
+            <v>249</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Vecka 20</v>
+          </cell>
+          <cell r="B21">
+            <v>379</v>
+          </cell>
+          <cell r="D21">
+            <v>190</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Vecka 21</v>
+          </cell>
+          <cell r="B22">
+            <v>340</v>
+          </cell>
+          <cell r="D22">
+            <v>164</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Vecka 22</v>
+          </cell>
+          <cell r="B23">
+            <v>258</v>
+          </cell>
+          <cell r="D23">
+            <v>98</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Vecka 23</v>
+          </cell>
+          <cell r="B24">
+            <v>252</v>
+          </cell>
+          <cell r="D24">
+            <v>95</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Vecka 24</v>
+          </cell>
+          <cell r="B25">
+            <v>224</v>
+          </cell>
+          <cell r="D25">
+            <v>99</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>Vecka 25</v>
+          </cell>
+          <cell r="B26">
+            <v>184</v>
+          </cell>
+          <cell r="D26">
+            <v>81</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>Vecka 26</v>
+          </cell>
+          <cell r="B27">
+            <v>130</v>
+          </cell>
+          <cell r="D27">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>Vecka 27</v>
+          </cell>
+          <cell r="B28">
+            <v>81</v>
+          </cell>
+          <cell r="D28">
+            <v>41</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>Vecka 28</v>
+          </cell>
+          <cell r="B29">
+            <v>75</v>
+          </cell>
+          <cell r="D29">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Vecka 29</v>
+          </cell>
+          <cell r="B30">
+            <v>60</v>
+          </cell>
+          <cell r="D30">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>Vecka 30</v>
+          </cell>
+          <cell r="B31">
+            <v>28</v>
+          </cell>
+          <cell r="D31">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>Vecka 31</v>
+          </cell>
+          <cell r="B32">
+            <v>24</v>
+          </cell>
+          <cell r="D32">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>Vecka 32</v>
+          </cell>
+          <cell r="B33">
+            <v>24</v>
+          </cell>
+          <cell r="D33">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>Vecka 33</v>
+          </cell>
+          <cell r="B34">
+            <v>15</v>
+          </cell>
+          <cell r="D34">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>Vecka 34</v>
+          </cell>
+          <cell r="B35">
+            <v>15</v>
+          </cell>
+          <cell r="D35">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>Vecka 35</v>
+          </cell>
+          <cell r="B36">
+            <v>12</v>
+          </cell>
+          <cell r="D36">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>Vecka 36</v>
+          </cell>
+          <cell r="B37">
+            <v>8</v>
+          </cell>
+          <cell r="D37">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>Vecka 37</v>
+          </cell>
+          <cell r="B38">
+            <v>13</v>
+          </cell>
+          <cell r="D38">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>Vecka 38</v>
+          </cell>
+          <cell r="B39">
+            <v>6</v>
+          </cell>
+          <cell r="D39">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>Vecka 39</v>
+          </cell>
+          <cell r="B40">
+            <v>11</v>
+          </cell>
+          <cell r="D40">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>Vecka 40</v>
+          </cell>
+          <cell r="B41">
+            <v>12</v>
+          </cell>
+          <cell r="D41">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>Vecka 41</v>
+          </cell>
+          <cell r="B42">
+            <v>17</v>
+          </cell>
+          <cell r="D42">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>Vecka 42</v>
+          </cell>
+          <cell r="B43">
+            <v>16</v>
+          </cell>
+          <cell r="D43">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>Vecka 43</v>
+          </cell>
+          <cell r="B44">
+            <v>25</v>
+          </cell>
+          <cell r="D44">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>Vecka 44</v>
+          </cell>
+          <cell r="B45">
+            <v>52</v>
+          </cell>
+          <cell r="D45">
+            <v>37</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>Vecka 45</v>
+          </cell>
+          <cell r="B46">
+            <v>41</v>
+          </cell>
+          <cell r="D46">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>Vecka 46</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>X</v>
+          </cell>
+          <cell r="D47">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Socialstyrelsen">
   <a:themeElements>
@@ -18367,7 +21828,9 @@
   </sheetPr>
   <dimension ref="A1:K325"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -30967,6 +34430,992 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="63" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="21.83203125" style="315" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="302" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="302" customWidth="1"/>
+    <col min="4" max="6" width="9.33203125" style="302"/>
+    <col min="7" max="7" width="7.83203125" style="302" customWidth="1"/>
+    <col min="8" max="16384" width="9.33203125" style="302"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="20" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.25">
+      <c r="A2" s="303" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="304" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A5" s="301" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="301"/>
+      <c r="C5" s="301"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="305"/>
+      <c r="B6" s="306" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="306"/>
+      <c r="D6" s="306"/>
+      <c r="E6" s="306"/>
+      <c r="F6" s="306"/>
+      <c r="G6" s="306"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="307" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" s="308" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="309"/>
+      <c r="D7" s="308" t="s">
+        <v>866</v>
+      </c>
+      <c r="E7" s="309"/>
+      <c r="F7" s="308" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" s="309"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="295"/>
+      <c r="B8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="310" t="s">
+        <v>578</v>
+      </c>
+      <c r="B9" s="311">
+        <v>6262</v>
+      </c>
+      <c r="C9" s="311">
+        <v>100</v>
+      </c>
+      <c r="D9" s="311">
+        <v>2905</v>
+      </c>
+      <c r="E9" s="311">
+        <v>46.39</v>
+      </c>
+      <c r="F9" s="311">
+        <v>1652</v>
+      </c>
+      <c r="G9" s="311">
+        <v>26.38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="312">
+        <v>10</v>
+      </c>
+      <c r="B10" s="313" t="s">
+        <v>291</v>
+      </c>
+      <c r="C10" s="313"/>
+      <c r="D10" s="313">
+        <v>0</v>
+      </c>
+      <c r="E10" s="313">
+        <v>0</v>
+      </c>
+      <c r="F10" s="313">
+        <v>0</v>
+      </c>
+      <c r="G10" s="313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="312">
+        <v>11</v>
+      </c>
+      <c r="B11" s="313" t="s">
+        <v>291</v>
+      </c>
+      <c r="C11" s="313"/>
+      <c r="D11" s="313">
+        <v>0</v>
+      </c>
+      <c r="E11" s="313">
+        <v>0</v>
+      </c>
+      <c r="F11" s="313">
+        <v>0</v>
+      </c>
+      <c r="G11" s="313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="312">
+        <v>12</v>
+      </c>
+      <c r="B12" s="313">
+        <v>44</v>
+      </c>
+      <c r="C12" s="313">
+        <v>0.7</v>
+      </c>
+      <c r="D12" s="313">
+        <v>13</v>
+      </c>
+      <c r="E12" s="313">
+        <v>29.55</v>
+      </c>
+      <c r="F12" s="313">
+        <v>14</v>
+      </c>
+      <c r="G12" s="313">
+        <v>31.82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="312">
+        <v>13</v>
+      </c>
+      <c r="B13" s="313">
+        <v>186</v>
+      </c>
+      <c r="C13" s="313">
+        <v>2.97</v>
+      </c>
+      <c r="D13" s="313">
+        <v>53</v>
+      </c>
+      <c r="E13" s="313">
+        <v>28.49</v>
+      </c>
+      <c r="F13" s="313">
+        <v>41</v>
+      </c>
+      <c r="G13" s="313">
+        <v>22.04</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="312">
+        <v>14</v>
+      </c>
+      <c r="B14" s="313">
+        <v>468</v>
+      </c>
+      <c r="C14" s="313">
+        <v>7.47</v>
+      </c>
+      <c r="D14" s="313">
+        <v>195</v>
+      </c>
+      <c r="E14" s="313">
+        <v>41.67</v>
+      </c>
+      <c r="F14" s="313">
+        <v>120</v>
+      </c>
+      <c r="G14" s="313">
+        <v>25.64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="312">
+        <v>15</v>
+      </c>
+      <c r="B15" s="313">
+        <v>737</v>
+      </c>
+      <c r="C15" s="313">
+        <v>11.77</v>
+      </c>
+      <c r="D15" s="313">
+        <v>319</v>
+      </c>
+      <c r="E15" s="313">
+        <v>43.28</v>
+      </c>
+      <c r="F15" s="313">
+        <v>198</v>
+      </c>
+      <c r="G15" s="313">
+        <v>26.87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="312">
+        <v>16</v>
+      </c>
+      <c r="B16" s="313">
+        <v>728</v>
+      </c>
+      <c r="C16" s="313">
+        <v>11.63</v>
+      </c>
+      <c r="D16" s="313">
+        <v>395</v>
+      </c>
+      <c r="E16" s="313">
+        <v>54.26</v>
+      </c>
+      <c r="F16" s="313">
+        <v>168</v>
+      </c>
+      <c r="G16" s="313">
+        <v>23.08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="312">
+        <v>17</v>
+      </c>
+      <c r="B17" s="313">
+        <v>595</v>
+      </c>
+      <c r="C17" s="313">
+        <v>9.5</v>
+      </c>
+      <c r="D17" s="313">
+        <v>292</v>
+      </c>
+      <c r="E17" s="313">
+        <v>49.08</v>
+      </c>
+      <c r="F17" s="313">
+        <v>149</v>
+      </c>
+      <c r="G17" s="313">
+        <v>25.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="312">
+        <v>18</v>
+      </c>
+      <c r="B18" s="313">
+        <v>553</v>
+      </c>
+      <c r="C18" s="313">
+        <v>8.83</v>
+      </c>
+      <c r="D18" s="313">
+        <v>289</v>
+      </c>
+      <c r="E18" s="313">
+        <v>52.26</v>
+      </c>
+      <c r="F18" s="313">
+        <v>138</v>
+      </c>
+      <c r="G18" s="313">
+        <v>24.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="312">
+        <v>19</v>
+      </c>
+      <c r="B19" s="313">
+        <v>498</v>
+      </c>
+      <c r="C19" s="313">
+        <v>7.95</v>
+      </c>
+      <c r="D19" s="313">
+        <v>249</v>
+      </c>
+      <c r="E19" s="313">
+        <v>50</v>
+      </c>
+      <c r="F19" s="313">
+        <v>123</v>
+      </c>
+      <c r="G19" s="313">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="312">
+        <v>20</v>
+      </c>
+      <c r="B20" s="313">
+        <v>380</v>
+      </c>
+      <c r="C20" s="313">
+        <v>6.07</v>
+      </c>
+      <c r="D20" s="313">
+        <v>190</v>
+      </c>
+      <c r="E20" s="313">
+        <v>50</v>
+      </c>
+      <c r="F20" s="313">
+        <v>102</v>
+      </c>
+      <c r="G20" s="313">
+        <v>26.84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="312">
+        <v>21</v>
+      </c>
+      <c r="B21" s="313">
+        <v>340</v>
+      </c>
+      <c r="C21" s="313">
+        <v>5.43</v>
+      </c>
+      <c r="D21" s="313">
+        <v>164</v>
+      </c>
+      <c r="E21" s="313">
+        <v>48.24</v>
+      </c>
+      <c r="F21" s="313">
+        <v>93</v>
+      </c>
+      <c r="G21" s="313">
+        <v>27.35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="312">
+        <v>22</v>
+      </c>
+      <c r="B22" s="313">
+        <v>258</v>
+      </c>
+      <c r="C22" s="313">
+        <v>4.12</v>
+      </c>
+      <c r="D22" s="313">
+        <v>98</v>
+      </c>
+      <c r="E22" s="313">
+        <v>37.979999999999997</v>
+      </c>
+      <c r="F22" s="313">
+        <v>93</v>
+      </c>
+      <c r="G22" s="313">
+        <v>36.049999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="312">
+        <v>23</v>
+      </c>
+      <c r="B23" s="313">
+        <v>252</v>
+      </c>
+      <c r="C23" s="313">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="D23" s="313">
+        <v>95</v>
+      </c>
+      <c r="E23" s="313">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="F23" s="313">
+        <v>88</v>
+      </c>
+      <c r="G23" s="313">
+        <v>34.92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="312">
+        <v>24</v>
+      </c>
+      <c r="B24" s="313">
+        <v>226</v>
+      </c>
+      <c r="C24" s="313">
+        <v>3.61</v>
+      </c>
+      <c r="D24" s="313">
+        <v>99</v>
+      </c>
+      <c r="E24" s="313">
+        <v>43.81</v>
+      </c>
+      <c r="F24" s="313">
+        <v>64</v>
+      </c>
+      <c r="G24" s="313">
+        <v>28.32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="312">
+        <v>25</v>
+      </c>
+      <c r="B25" s="313">
+        <v>184</v>
+      </c>
+      <c r="C25" s="313">
+        <v>2.94</v>
+      </c>
+      <c r="D25" s="313">
+        <v>81</v>
+      </c>
+      <c r="E25" s="313">
+        <v>44.02</v>
+      </c>
+      <c r="F25" s="313">
+        <v>55</v>
+      </c>
+      <c r="G25" s="313">
+        <v>29.89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="312">
+        <v>26</v>
+      </c>
+      <c r="B26" s="313">
+        <v>131</v>
+      </c>
+      <c r="C26" s="313">
+        <v>2.09</v>
+      </c>
+      <c r="D26" s="313">
+        <v>63</v>
+      </c>
+      <c r="E26" s="313">
+        <v>48.09</v>
+      </c>
+      <c r="F26" s="313">
+        <v>37</v>
+      </c>
+      <c r="G26" s="313">
+        <v>28.24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="312">
+        <v>27</v>
+      </c>
+      <c r="B27" s="313">
+        <v>81</v>
+      </c>
+      <c r="C27" s="313">
+        <v>1.29</v>
+      </c>
+      <c r="D27" s="313">
+        <v>41</v>
+      </c>
+      <c r="E27" s="313">
+        <v>50.62</v>
+      </c>
+      <c r="F27" s="313">
+        <v>19</v>
+      </c>
+      <c r="G27" s="313">
+        <v>23.46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="312">
+        <v>28</v>
+      </c>
+      <c r="B28" s="313">
+        <v>76</v>
+      </c>
+      <c r="C28" s="313">
+        <v>1.21</v>
+      </c>
+      <c r="D28" s="313">
+        <v>35</v>
+      </c>
+      <c r="E28" s="313">
+        <v>46.05</v>
+      </c>
+      <c r="F28" s="313">
+        <v>17</v>
+      </c>
+      <c r="G28" s="313">
+        <v>22.37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="312">
+        <v>29</v>
+      </c>
+      <c r="B29" s="313">
+        <v>61</v>
+      </c>
+      <c r="C29" s="313">
+        <v>0.97</v>
+      </c>
+      <c r="D29" s="313">
+        <v>25</v>
+      </c>
+      <c r="E29" s="313">
+        <v>40.98</v>
+      </c>
+      <c r="F29" s="313">
+        <v>18</v>
+      </c>
+      <c r="G29" s="313">
+        <v>29.51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="312">
+        <v>30</v>
+      </c>
+      <c r="B30" s="313">
+        <v>28</v>
+      </c>
+      <c r="C30" s="313">
+        <v>0.45</v>
+      </c>
+      <c r="D30" s="313">
+        <v>13</v>
+      </c>
+      <c r="E30" s="313">
+        <v>46.43</v>
+      </c>
+      <c r="F30" s="313">
+        <v>4</v>
+      </c>
+      <c r="G30" s="313">
+        <v>14.29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="312">
+        <v>31</v>
+      </c>
+      <c r="B31" s="313">
+        <v>24</v>
+      </c>
+      <c r="C31" s="313">
+        <v>0.38</v>
+      </c>
+      <c r="D31" s="313">
+        <v>5</v>
+      </c>
+      <c r="E31" s="313">
+        <v>20.83</v>
+      </c>
+      <c r="F31" s="313">
+        <v>7</v>
+      </c>
+      <c r="G31" s="313">
+        <v>29.17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="312">
+        <v>32</v>
+      </c>
+      <c r="B32" s="313">
+        <v>24</v>
+      </c>
+      <c r="C32" s="313">
+        <v>0.38</v>
+      </c>
+      <c r="D32" s="313">
+        <v>10</v>
+      </c>
+      <c r="E32" s="313">
+        <v>41.67</v>
+      </c>
+      <c r="F32" s="313">
+        <v>9</v>
+      </c>
+      <c r="G32" s="313">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="312">
+        <v>33</v>
+      </c>
+      <c r="B33" s="313">
+        <v>15</v>
+      </c>
+      <c r="C33" s="313">
+        <v>0.24</v>
+      </c>
+      <c r="D33" s="313">
+        <v>7</v>
+      </c>
+      <c r="E33" s="313">
+        <v>46.67</v>
+      </c>
+      <c r="F33" s="313" t="s">
+        <v>291</v>
+      </c>
+      <c r="H33" s="313"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="312">
+        <v>34</v>
+      </c>
+      <c r="B34" s="313">
+        <v>15</v>
+      </c>
+      <c r="C34" s="313">
+        <v>0.24</v>
+      </c>
+      <c r="D34" s="313">
+        <v>4</v>
+      </c>
+      <c r="E34" s="313">
+        <v>26.67</v>
+      </c>
+      <c r="F34" s="313">
+        <v>5</v>
+      </c>
+      <c r="G34" s="313">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="312">
+        <v>35</v>
+      </c>
+      <c r="B35" s="313">
+        <v>12</v>
+      </c>
+      <c r="C35" s="313">
+        <v>0.19</v>
+      </c>
+      <c r="D35" s="313" t="s">
+        <v>291</v>
+      </c>
+      <c r="E35" s="313"/>
+      <c r="F35" s="313">
+        <v>5</v>
+      </c>
+      <c r="G35" s="313">
+        <v>41.67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="312">
+        <v>36</v>
+      </c>
+      <c r="B36" s="313">
+        <v>8</v>
+      </c>
+      <c r="C36" s="313">
+        <v>0.13</v>
+      </c>
+      <c r="D36" s="313">
+        <v>0</v>
+      </c>
+      <c r="E36" s="313">
+        <v>0</v>
+      </c>
+      <c r="F36" s="313">
+        <v>4</v>
+      </c>
+      <c r="G36" s="313">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="312">
+        <v>37</v>
+      </c>
+      <c r="B37" s="313">
+        <v>13</v>
+      </c>
+      <c r="C37" s="313">
+        <v>0.21</v>
+      </c>
+      <c r="D37" s="313">
+        <v>4</v>
+      </c>
+      <c r="E37" s="313">
+        <v>30.77</v>
+      </c>
+      <c r="F37" s="313">
+        <v>4</v>
+      </c>
+      <c r="G37" s="313">
+        <v>30.77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="312">
+        <v>38</v>
+      </c>
+      <c r="B38" s="313">
+        <v>6</v>
+      </c>
+      <c r="C38" s="313">
+        <v>0.1</v>
+      </c>
+      <c r="D38" s="313" t="s">
+        <v>291</v>
+      </c>
+      <c r="E38" s="313"/>
+      <c r="F38" s="313" t="s">
+        <v>291</v>
+      </c>
+      <c r="G38" s="313"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="312">
+        <v>39</v>
+      </c>
+      <c r="B39" s="313">
+        <v>11</v>
+      </c>
+      <c r="C39" s="313">
+        <v>0.18</v>
+      </c>
+      <c r="D39" s="313" t="s">
+        <v>291</v>
+      </c>
+      <c r="E39" s="313"/>
+      <c r="F39" s="313" t="s">
+        <v>291</v>
+      </c>
+      <c r="G39" s="313"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="312">
+        <v>40</v>
+      </c>
+      <c r="B40" s="313">
+        <v>12</v>
+      </c>
+      <c r="C40" s="313">
+        <v>0.19</v>
+      </c>
+      <c r="D40" s="313">
+        <v>6</v>
+      </c>
+      <c r="E40" s="313">
+        <v>50</v>
+      </c>
+      <c r="F40" s="313" t="s">
+        <v>291</v>
+      </c>
+      <c r="G40" s="313"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="312">
+        <v>41</v>
+      </c>
+      <c r="B41" s="313">
+        <v>17</v>
+      </c>
+      <c r="C41" s="313">
+        <v>0.27</v>
+      </c>
+      <c r="D41" s="313">
+        <v>7</v>
+      </c>
+      <c r="E41" s="313">
+        <v>41.18</v>
+      </c>
+      <c r="F41" s="313">
+        <v>4</v>
+      </c>
+      <c r="G41" s="313">
+        <v>23.53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="312">
+        <v>42</v>
+      </c>
+      <c r="B42" s="313">
+        <v>16</v>
+      </c>
+      <c r="C42" s="313">
+        <v>0.26</v>
+      </c>
+      <c r="D42" s="313">
+        <v>7</v>
+      </c>
+      <c r="E42" s="313">
+        <v>43.75</v>
+      </c>
+      <c r="F42" s="313">
+        <v>6</v>
+      </c>
+      <c r="G42" s="313">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="312">
+        <v>43</v>
+      </c>
+      <c r="B43" s="313">
+        <v>25</v>
+      </c>
+      <c r="C43" s="313">
+        <v>0.4</v>
+      </c>
+      <c r="D43" s="313">
+        <v>15</v>
+      </c>
+      <c r="E43" s="313">
+        <v>60</v>
+      </c>
+      <c r="F43" s="313">
+        <v>6</v>
+      </c>
+      <c r="G43" s="313">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="312">
+        <v>44</v>
+      </c>
+      <c r="B44" s="313">
+        <v>61</v>
+      </c>
+      <c r="C44" s="313">
+        <v>0.97</v>
+      </c>
+      <c r="D44" s="313">
+        <v>40</v>
+      </c>
+      <c r="E44" s="313">
+        <v>65.569999999999993</v>
+      </c>
+      <c r="F44" s="313">
+        <v>11</v>
+      </c>
+      <c r="G44" s="313">
+        <v>18.03</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="312">
+        <v>45</v>
+      </c>
+      <c r="B45" s="313">
+        <v>105</v>
+      </c>
+      <c r="C45" s="313">
+        <v>1.68</v>
+      </c>
+      <c r="D45" s="313">
+        <v>47</v>
+      </c>
+      <c r="E45" s="313">
+        <v>44.76</v>
+      </c>
+      <c r="F45" s="313">
+        <v>25</v>
+      </c>
+      <c r="G45" s="313">
+        <v>23.81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="312">
+        <v>46</v>
+      </c>
+      <c r="B46" s="313">
+        <v>65</v>
+      </c>
+      <c r="C46" s="313">
+        <v>1.04</v>
+      </c>
+      <c r="D46" s="313">
+        <v>35</v>
+      </c>
+      <c r="E46" s="313">
+        <v>53.85</v>
+      </c>
+      <c r="F46" s="313">
+        <v>17</v>
+      </c>
+      <c r="G46" s="313">
+        <v>26.15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A47" s="312">
+        <v>47</v>
+      </c>
+      <c r="B47" s="313" t="s">
+        <v>291</v>
+      </c>
+      <c r="C47" s="313"/>
+      <c r="D47" s="313" t="s">
+        <v>291</v>
+      </c>
+      <c r="E47" s="313"/>
+      <c r="F47" s="313">
+        <v>0</v>
+      </c>
+      <c r="G47" s="313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="13.5" thickTop="1">
+      <c r="A48" s="314"/>
+      <c r="B48" s="314"/>
+      <c r="C48" s="314"/>
+      <c r="D48" s="314"/>
+      <c r="E48" s="314"/>
+      <c r="F48" s="314"/>
+      <c r="G48" s="314"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -48646,6 +53095,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100361443839E954C488E1554F766430BDE" ma:contentTypeVersion="37" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="ec0867efc9d878e75742a5b73fddae48">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dd3acd59-a8d8-42b1-950d-eec6c247243c" xmlns:ns3="343f6c91-b5b3-4dff-89ad-5fc55ccc8930" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f4ea334ff345e29c5775f0a2fd1174f" ns2:_="" ns3:_="">
     <xsd:import namespace="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
@@ -48978,7 +53436,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Publiceringsdatum xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">2020-04-28T22:00:00+00:00</Publiceringsdatum>
@@ -49016,16 +53474,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2BDD971-BADF-427E-9579-B824215A28B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -49044,7 +53501,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -49059,12 +53516,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>